--- a/public/instructivo/Instructivo_Carga_Data_Docentes.xlsx
+++ b/public/instructivo/Instructivo_Carga_Data_Docentes.xlsx
@@ -423,12 +423,6 @@
 4: Divorsiado (a)</t>
   </si>
   <si>
-    <t>Indicador si el Docente sufre o no discapacidad. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Discapacidad del Docente en texto, debe completarse solo si marcó Si a sufre discapacidad (Valor 1)</t>
   </si>
   <si>
@@ -445,12 +439,6 @@
   </si>
   <si>
     <t>Teléfono del Docente</t>
-  </si>
-  <si>
-    <t>Indicador si el Docente se encuentra de Licencia. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>CARGO GENERAL</t>
@@ -525,12 +513,6 @@
     <t>¿TIENE OTRO GRADO ACADÉMICO?</t>
   </si>
   <si>
-    <t>Indicador si el Docente cuenta con otro grado académico. Valores:
-1: Si
-2: No
-Vacío: No</t>
-  </si>
-  <si>
     <t>Error en la Columna DESCRIPCIÓN DEL MÁXIMO GRADO ACADÉMICO: 
 Debe de ingresar la descripción del máximo grado académico del Docente. Corrija la Columna U, Fila n</t>
   </si>
@@ -708,12 +690,6 @@
   </si>
   <si>
     <t>¿TIENE TÍTULO UNIVERSITARIO?</t>
-  </si>
-  <si>
-    <t>Indicador si el Docente cuenta con título universitario. Valores:
-1: Si
-2: No
-Vacío: No</t>
   </si>
   <si>
     <t>Error en la Columna ¿TIENE TÍTULO UNIVERSITARIO?:
@@ -796,219 +772,243 @@
     <t>¿ES INVESTIGADOR?</t>
   </si>
   <si>
+    <t>Error en la Columna ¿ES INVESTIGADOR?:
+El código de ¿Es Investigador? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AI, Fila n</t>
+  </si>
+  <si>
+    <t>¿ES DOCENTE DE POSTGRADO?</t>
+  </si>
+  <si>
+    <t>¿ES DOCENTE DE PREGRADO?</t>
+  </si>
+  <si>
+    <t>¿ES DOCENTE DESTACADO?</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES DOCENTE DESTACADO?:
+El código de ¿Es Docente Destacado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AL, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES DOCENTE DE POSTGRADO?:
+El código de ¿Es Docente Postgrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AK, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿ES DOCENTE PREGRADO?:
+El código de ¿Es Docente Pregrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AJ, Fila n</t>
+  </si>
+  <si>
+    <t>HORAS LECTIVAS</t>
+  </si>
+  <si>
+    <t>Horas Lectivas del Docente</t>
+  </si>
+  <si>
+    <t>Datos entre [0: n]</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS LECTIVAS:
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AM, Fila n</t>
+  </si>
+  <si>
+    <t>HORAS NO LECTIVAS</t>
+  </si>
+  <si>
+    <t>Horas No Lectivas del Docente</t>
+  </si>
+  <si>
+    <t>HORAS DE INVESTIGACIÓN</t>
+  </si>
+  <si>
+    <t>Horas de Investigación del Docente</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS NO LECTIVAS:
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AN, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS DE INVESTIGACIÓN:
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AO, Fila n</t>
+  </si>
+  <si>
+    <t>HORAS DE DEDICACIÓN</t>
+  </si>
+  <si>
+    <t>Horas de Dedicación del Docente</t>
+  </si>
+  <si>
+    <t>Error en la Columna HORAS DE DEDICACIÓN
+El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AP, Fila n</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN DEL DOCENTE</t>
+  </si>
+  <si>
+    <t>FECHA DE INGRESO A LA UNIVERISAD</t>
+  </si>
+  <si>
+    <t>Fecha de ingreso del Docente a la universidad. Formato dd/mm/aaaa</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>Error en la Columna FECHA DE INGRESO A LA UNIVERISAD:
+EL dato ingresado se encuentran en blanco o no tiene un formato correcto. Corrija la Columna AQ, Fila n</t>
+  </si>
+  <si>
+    <t>MODALIDAD DE INGRESO</t>
+  </si>
+  <si>
+    <t>Descripción de la modalidad de Ingreso del Docente a la Universidad.</t>
+  </si>
+  <si>
+    <t>Proceso de Selección 2004</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>Error en la Columna MODALIDAD DE INGRESO: 
+Debe de ingresar la descripción de la modalidad de Ingreso del Docente a la Universidad. Corrija la Columna AR, Fila n</t>
+  </si>
+  <si>
+    <t>¿REALIZÓ INTERCAMBIO?</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Error en la Columna ¿REALIZÓ INTERCAMBIO?:
+El código de ¿Realizó Intercambio? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AS, Fila n</t>
+  </si>
+  <si>
+    <t>UNIVERSIDAD DONDE REALIZÓ INTERCAMBIO</t>
+  </si>
+  <si>
+    <t>Nombre en formato texto de la Universidad en que el Docente realizó su Intercambio, debe completarse solo si marcó a Realizó Movilidad Nacional (Valor 1)</t>
+  </si>
+  <si>
+    <t>Obligatorio solo si marcó SI para Realizó Intercambio</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
+    <t>Error en la Columna UNIVERSIDAD DONDE REALIZÓ INTERCAMBIO:
+Si ha ingresado que el Docente realizóIntercambio, ingrese el Nombre de la Universidad donde lo realizó, no puede dejar el registro en blanco. Corrija la Columna AT, Fila n</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>AV</t>
+  </si>
+  <si>
+    <t>AW</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Error en la Columna PAÍS DE PROCEDENCIA:
+El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AU, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
+El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AV, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
+La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AW, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
+El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AX, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AY, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna DIRECCIÓN DEL Docente:
+El Valor ingresado se encuentran en blanco. Corrija la Columna AZ, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
+El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna BA, Fila n</t>
+  </si>
+  <si>
+    <t>Error en la Columna UNIVERSIDAD DEL MÁXIMO GRADO ACADÉMICO: 
+Debe de ingresar la descripción de la Universidad del máximo grado académico del Docente. Corrija la Columna V, Fila n</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente sufre o no discapacidad. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente se encuentra de Licencia. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente cuenta con otro grado académico. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
+    <t>Indicador si el Docente cuenta con título universitario. Valores:
+1: Si
+0: No
+Vacío: No</t>
+  </si>
+  <si>
     <t>Indicador si el Docente es investigador. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES INVESTIGADOR?:
-El código de ¿Es Investigador? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AI, Fila n</t>
   </si>
   <si>
     <t>Indicador si el Docente dicta cursos en Pregrado. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>¿ES DOCENTE DE POSTGRADO?</t>
-  </si>
-  <si>
-    <t>¿ES DOCENTE DE PREGRADO?</t>
   </si>
   <si>
     <t>Indicador si el Docente dicta cursos en Postgrado. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>¿ES DOCENTE DESTACADO?</t>
   </si>
   <si>
     <t>Indicador si el Docente es Destacado. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES DOCENTE DESTACADO?:
-El código de ¿Es Docente Destacado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AL, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES DOCENTE DE POSTGRADO?:
-El código de ¿Es Docente Postgrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AK, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿ES DOCENTE PREGRADO?:
-El código de ¿Es Docente Pregrado? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AJ, Fila n</t>
-  </si>
-  <si>
-    <t>HORAS LECTIVAS</t>
-  </si>
-  <si>
-    <t>Horas Lectivas del Docente</t>
-  </si>
-  <si>
-    <t>Datos entre [0: n]</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS LECTIVAS:
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AM, Fila n</t>
-  </si>
-  <si>
-    <t>HORAS NO LECTIVAS</t>
-  </si>
-  <si>
-    <t>Horas No Lectivas del Docente</t>
-  </si>
-  <si>
-    <t>HORAS DE INVESTIGACIÓN</t>
-  </si>
-  <si>
-    <t>Horas de Investigación del Docente</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS NO LECTIVAS:
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AN, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS DE INVESTIGACIÓN:
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AO, Fila n</t>
-  </si>
-  <si>
-    <t>HORAS DE DEDICACIÓN</t>
-  </si>
-  <si>
-    <t>Horas de Dedicación del Docente</t>
-  </si>
-  <si>
-    <t>Error en la Columna HORAS DE DEDICACIÓN
-El dato consignado no es correcto debe de ingresar un dato númerico. Corrija la Columna AP, Fila n</t>
-  </si>
-  <si>
-    <t>DIRECCIÓN DEL DOCENTE</t>
-  </si>
-  <si>
-    <t>FECHA DE INGRESO A LA UNIVERISAD</t>
-  </si>
-  <si>
-    <t>Fecha de ingreso del Docente a la universidad. Formato dd/mm/aaaa</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>Error en la Columna FECHA DE INGRESO A LA UNIVERISAD:
-EL dato ingresado se encuentran en blanco o no tiene un formato correcto. Corrija la Columna AQ, Fila n</t>
-  </si>
-  <si>
-    <t>MODALIDAD DE INGRESO</t>
-  </si>
-  <si>
-    <t>Descripción de la modalidad de Ingreso del Docente a la Universidad.</t>
-  </si>
-  <si>
-    <t>Proceso de Selección 2004</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>Error en la Columna MODALIDAD DE INGRESO: 
-Debe de ingresar la descripción de la modalidad de Ingreso del Docente a la Universidad. Corrija la Columna AR, Fila n</t>
-  </si>
-  <si>
-    <t>¿REALIZÓ INTERCAMBIO?</t>
   </si>
   <si>
     <t>Indicador si el Docente realizó o no Intercambio. Valores:
 1: Si
-2: No
+0: No
 Vacío: No</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>Error en la Columna ¿REALIZÓ INTERCAMBIO?:
-El código de ¿Realizó Intercambio? solo debe de llevar valores de 0 ó vacío para NO ó 1 para SI. Corrija la Columna AS, Fila n</t>
-  </si>
-  <si>
-    <t>UNIVERSIDAD DONDE REALIZÓ INTERCAMBIO</t>
-  </si>
-  <si>
-    <t>Nombre en formato texto de la Universidad en que el Docente realizó su Intercambio, debe completarse solo si marcó a Realizó Movilidad Nacional (Valor 1)</t>
-  </si>
-  <si>
-    <t>Obligatorio solo si marcó SI para Realizó Intercambio</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>Error en la Columna UNIVERSIDAD DONDE REALIZÓ INTERCAMBIO:
-Si ha ingresado que el Docente realizóIntercambio, ingrese el Nombre de la Universidad donde lo realizó, no puede dejar el registro en blanco. Corrija la Columna AT, Fila n</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>AV</t>
-  </si>
-  <si>
-    <t>AW</t>
-  </si>
-  <si>
-    <t>AX</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>BB</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
-    <t>Error en la Columna PAÍS DE PROCEDENCIA:
-El País de Procedencia ingresado se encuentran en blanco. Corrija la Columna AU, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DEPARTAMENTO DE PROCEDENCIA
-El Departamento de Procedencia ingresado se encuentran en blanco. Corrija la Columna AV, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna PROVINCIA DE PROCEDENCIA:
-La Provincia de Procedencia ingresado se encuentran en blanco. Corrija la Columna AW, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DISTRITO DE PROCEDENCIA:
-El Distrito de Procedencia ingresado se encuentran en blanco. Corrija la Columna AX, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO INSTITUCIONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna AY, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna DIRECCIÓN DEL Docente:
-El Valor ingresado se encuentran en blanco. Corrija la Columna AZ, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna CORREO ELECTRÓNICO PERSONAL:
-El Valor ingresado se encuentran en blanco, o cuenta con un formato incorrecto. Corrija la Coumna BA, Fila n</t>
-  </si>
-  <si>
-    <t>Error en la Columna UNIVERSIDAD DEL MÁXIMO GRADO ACADÉMICO: 
-Debe de ingresar la descripción de la Universidad del máximo grado académico del Docente. Corrija la Columna V, Fila n</t>
   </si>
 </sst>
 </file>
@@ -1561,7 +1561,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1731,10 +1733,10 @@
         <v>1</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1760,10 +1762,10 @@
         <v>65745985</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1792,7 +1794,7 @@
         <v>34</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -1845,10 +1847,10 @@
         <v>49</v>
       </c>
       <c r="H15" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="I15" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1877,7 +1879,7 @@
         <v>37</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -1906,7 +1908,7 @@
         <v>40</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="76.5" x14ac:dyDescent="0.35">
@@ -1935,7 +1937,7 @@
         <v>41</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -1946,7 +1948,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>36</v>
@@ -1964,7 +1966,7 @@
         <v>42</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -1975,7 +1977,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>59</v>
@@ -1993,7 +1995,7 @@
         <v>44</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -2004,7 +2006,7 @@
         <v>91</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>24</v>
@@ -2022,7 +2024,7 @@
         <v>45</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="21" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2033,7 +2035,7 @@
         <v>116</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>24</v>
@@ -2051,7 +2053,7 @@
         <v>43</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="245.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2059,10 +2061,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D23" s="13" t="s">
         <v>24</v>
@@ -2071,7 +2073,7 @@
         <v>26</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G23" s="16">
         <v>13</v>
@@ -2080,7 +2082,7 @@
         <v>54</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="116.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2088,13 +2090,13 @@
         <v>17</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>60</v>
@@ -2103,13 +2105,13 @@
         <v>61</v>
       </c>
       <c r="G24" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H24" s="16" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="69.75" x14ac:dyDescent="0.35">
@@ -2117,10 +2119,10 @@
         <v>18</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>21</v>
@@ -2132,7 +2134,7 @@
         <v>61</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H25" s="18" t="s">
         <v>48</v>
@@ -2144,10 +2146,10 @@
         <v>19</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>24</v>
@@ -2156,7 +2158,7 @@
         <v>26</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G26" s="15">
         <v>1</v>
@@ -2165,7 +2167,7 @@
         <v>50</v>
       </c>
       <c r="I26" s="11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="121.5" x14ac:dyDescent="0.35">
@@ -2173,10 +2175,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>143</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>24</v>
@@ -2185,7 +2187,7 @@
         <v>23</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G27" s="15">
         <v>4</v>
@@ -2194,7 +2196,7 @@
         <v>63</v>
       </c>
       <c r="I27" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2202,10 +2204,10 @@
         <v>21</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>24</v>
@@ -2217,13 +2219,13 @@
         <v>61</v>
       </c>
       <c r="G28" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H28" s="16" t="s">
         <v>51</v>
       </c>
       <c r="I28" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2231,10 +2233,10 @@
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>24</v>
@@ -2246,13 +2248,13 @@
         <v>61</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H29" s="16" t="s">
         <v>68</v>
       </c>
       <c r="I29" s="17" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2260,10 +2262,10 @@
         <v>23</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>24</v>
@@ -2272,7 +2274,7 @@
         <v>26</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G30" s="15">
         <v>1</v>
@@ -2281,7 +2283,7 @@
         <v>71</v>
       </c>
       <c r="I30" s="11" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2289,13 +2291,13 @@
         <v>24</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>60</v>
@@ -2304,13 +2306,13 @@
         <v>61</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H31" s="16" t="s">
         <v>75</v>
       </c>
       <c r="I31" s="17" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2318,10 +2320,10 @@
         <v>25</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>149</v>
+        <v>274</v>
       </c>
       <c r="D32" s="13" t="s">
         <v>36</v>
@@ -2339,7 +2341,7 @@
         <v>76</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.35">
@@ -2347,13 +2349,13 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>60</v>
@@ -2362,13 +2364,13 @@
         <v>61</v>
       </c>
       <c r="G33" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="H33" s="16" t="s">
         <v>77</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2376,13 +2378,13 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>60</v>
@@ -2391,13 +2393,13 @@
         <v>61</v>
       </c>
       <c r="G34" s="16" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H34" s="16" t="s">
         <v>78</v>
       </c>
       <c r="I34" s="17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2405,19 +2407,19 @@
         <v>28</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G35" s="15">
         <v>1</v>
@@ -2426,7 +2428,7 @@
         <v>79</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="120" x14ac:dyDescent="0.35">
@@ -2434,13 +2436,13 @@
         <v>29</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>60</v>
@@ -2449,13 +2451,13 @@
         <v>61</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H36" s="16" t="s">
         <v>80</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2463,10 +2465,10 @@
         <v>30</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>201</v>
+        <v>275</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>36</v>
@@ -2484,7 +2486,7 @@
         <v>81</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.35">
@@ -2492,13 +2494,13 @@
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>60</v>
@@ -2507,13 +2509,13 @@
         <v>61</v>
       </c>
       <c r="G38" s="16" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="H38" s="16" t="s">
         <v>82</v>
       </c>
       <c r="I38" s="17" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="192" customHeight="1" x14ac:dyDescent="0.35">
@@ -2521,10 +2523,10 @@
         <v>32</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D39" s="13" t="s">
         <v>24</v>
@@ -2533,7 +2535,7 @@
         <v>26</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G39" s="16">
         <v>1</v>
@@ -2542,7 +2544,7 @@
         <v>94</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2550,10 +2552,10 @@
         <v>33</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>24</v>
@@ -2562,7 +2564,7 @@
         <v>26</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G40" s="16">
         <v>1</v>
@@ -2571,7 +2573,7 @@
         <v>95</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2579,10 +2581,10 @@
         <v>34</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>24</v>
@@ -2591,7 +2593,7 @@
         <v>26</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G41" s="16">
         <v>2</v>
@@ -2600,7 +2602,7 @@
         <v>96</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2608,10 +2610,10 @@
         <v>35</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>36</v>
@@ -2629,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2637,10 +2639,10 @@
         <v>36</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="D43" s="13" t="s">
         <v>36</v>
@@ -2658,7 +2660,7 @@
         <v>98</v>
       </c>
       <c r="I43" s="11" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2666,10 +2668,10 @@
         <v>37</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>36</v>
@@ -2687,7 +2689,7 @@
         <v>99</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2695,10 +2697,10 @@
         <v>38</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="D45" s="13" t="s">
         <v>36</v>
@@ -2716,7 +2718,7 @@
         <v>103</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2724,10 +2726,10 @@
         <v>39</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>24</v>
@@ -2736,7 +2738,7 @@
         <v>64</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G46" s="16">
         <v>8</v>
@@ -2745,7 +2747,7 @@
         <v>104</v>
       </c>
       <c r="I46" s="11" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2753,10 +2755,10 @@
         <v>40</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D47" s="13" t="s">
         <v>24</v>
@@ -2765,7 +2767,7 @@
         <v>64</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G47" s="16">
         <v>7</v>
@@ -2774,7 +2776,7 @@
         <v>106</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2782,10 +2784,10 @@
         <v>41</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D48" s="13" t="s">
         <v>24</v>
@@ -2794,7 +2796,7 @@
         <v>64</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G48" s="16">
         <v>10</v>
@@ -2803,7 +2805,7 @@
         <v>107</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2811,10 +2813,10 @@
         <v>42</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>24</v>
@@ -2823,7 +2825,7 @@
         <v>64</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G49" s="16">
         <v>5</v>
@@ -2832,7 +2834,7 @@
         <v>108</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2840,10 +2842,10 @@
         <v>43</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D50" s="13" t="s">
         <v>24</v>
@@ -2858,10 +2860,10 @@
         <v>38492</v>
       </c>
       <c r="H50" s="16" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2869,10 +2871,10 @@
         <v>44</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>24</v>
@@ -2884,13 +2886,13 @@
         <v>61</v>
       </c>
       <c r="G51" s="16" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H51" s="16" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="I51" s="17" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
@@ -2898,10 +2900,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>36</v>
@@ -2916,10 +2918,10 @@
         <v>1</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -2927,13 +2929,13 @@
         <v>46</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>60</v>
@@ -2945,10 +2947,10 @@
         <v>93</v>
       </c>
       <c r="H53" s="16" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -2974,10 +2976,10 @@
         <v>67</v>
       </c>
       <c r="H54" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="I54" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3003,10 +3005,10 @@
         <v>70</v>
       </c>
       <c r="H55" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="I55" s="11" t="s">
         <v>265</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3032,10 +3034,10 @@
         <v>74</v>
       </c>
       <c r="H56" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="I56" s="11" t="s">
         <v>266</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="46.5" x14ac:dyDescent="0.35">
@@ -3061,10 +3063,10 @@
         <v>83</v>
       </c>
       <c r="H57" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>267</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -3075,7 +3077,7 @@
         <v>100</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D58" s="13" t="s">
         <v>24</v>
@@ -3090,10 +3092,10 @@
         <v>102</v>
       </c>
       <c r="H58" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="I58" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -3101,10 +3103,10 @@
         <v>52</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>24</v>
@@ -3119,10 +3121,10 @@
         <v>84</v>
       </c>
       <c r="H59" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="I59" s="11" t="s">
         <v>269</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="61.5" x14ac:dyDescent="0.35">
@@ -3133,7 +3135,7 @@
         <v>105</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>24</v>
@@ -3148,10 +3150,10 @@
         <v>87</v>
       </c>
       <c r="H60" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="I60" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.35">
@@ -3162,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>21</v>
@@ -3177,7 +3179,7 @@
         <v>945625285</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="I61" s="11"/>
     </row>
@@ -3202,7 +3204,7 @@
       </c>
       <c r="G62" s="14"/>
       <c r="H62" s="14" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="I62" s="11"/>
     </row>
